--- a/additional datasets.xlsx
+++ b/additional datasets.xlsx
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C39DC0-12B0-41F1-A2D3-C34492265978}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/additional datasets.xlsx
+++ b/additional datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D36C26D-91D5-4736-BC82-4A12C56D28C8}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660D7133-A5F1-41A3-B986-D34722AA96F5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{702BC2A0-E93A-4295-984E-5B758B542739}"/>
   </bookViews>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C39DC0-12B0-41F1-A2D3-C34492265978}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/additional datasets.xlsx
+++ b/additional datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660D7133-A5F1-41A3-B986-D34722AA96F5}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF69C59B-68AA-4981-80CF-ECE6DC83B608}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{702BC2A0-E93A-4295-984E-5B758B542739}"/>
   </bookViews>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -620,6 +620,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C39DC0-12B0-41F1-A2D3-C34492265978}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,48 +1316,48 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="30">
         <f>1008+768</f>
         <v>1776</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="30">
         <f>111+110</f>
         <v>221</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="30">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1555</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="31">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.12443693693693694</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="32" t="s">
         <v>96</v>
       </c>
     </row>

--- a/additional datasets.xlsx
+++ b/additional datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF69C59B-68AA-4981-80CF-ECE6DC83B608}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB431A1-1F31-489C-846B-931E0429869D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{702BC2A0-E93A-4295-984E-5B758B542739}"/>
   </bookViews>
@@ -462,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,12 +484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +517,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -597,9 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -609,19 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1061,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,91 +1252,91 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:13" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <v>2350</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <v>132</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>2218</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="26">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>5.6170212765957447E-2</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="32" t="s">
+      <c r="L5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="32" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:13" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <f>1008+768</f>
         <v>1776</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="25">
         <f>111+110</f>
         <v>221</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="25">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1555</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="26">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.12443693693693694</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="27" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1404,46 +1383,46 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="11">
         <v>1539</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="11">
         <v>614</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="11">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>925</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="12">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.39896036387264455</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="28" t="s">
+      <c r="J8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1573,43 +1552,43 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="11">
         <v>614</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="11">
         <v>252</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="11">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>362</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="12">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.41042345276872966</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="28" t="s">
+      <c r="J12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>65</v>
       </c>
     </row>

--- a/additional datasets.xlsx
+++ b/additional datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{2FDF266E-8D0F-4930-84E6-93CA0AC2AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB431A1-1F31-489C-846B-931E0429869D}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B1F0304C-E3AA-4FBB-A679-6149A3EF0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8C6AFF-7820-44E1-8B43-B106843EAC1F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{702BC2A0-E93A-4295-984E-5B758B542739}"/>
   </bookViews>
@@ -483,7 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +558,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -573,24 +588,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -599,9 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -711,6 +711,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C39DC0-12B0-41F1-A2D3-C34492265978}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,136 +1127,136 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="26">
         <v>10454</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="26">
         <v>573</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="26">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>9881</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="27">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>5.4811555385498374E-2</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="16">
         <v>3999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="16">
         <v>550</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="16">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>3449</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="17">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.13753438359589898</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="J3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="16">
         <v>2766</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="16">
         <v>34</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="16">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>2732</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="17">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>1.2292118582791034E-2</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
@@ -1268,41 +1272,41 @@
       <c r="E5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="26">
         <v>2350</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="26">
         <v>132</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>2218</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="27">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>5.6170212765957447E-2</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1311,75 +1315,75 @@
       <c r="E6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="26">
         <f>1008+768</f>
         <v>1776</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="26">
         <f>111+110</f>
         <v>221</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1555</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="27">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.12443693693693694</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="16">
         <v>1736</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="16">
         <v>169</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="16">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1567</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="17">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>9.7350230414746539E-2</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1426,129 +1430,129 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="26">
         <v>1433</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="26">
         <v>65</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="26">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1368</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="27">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>4.5359385903698535E-2</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="J9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="26">
         <v>963</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="26">
         <v>60</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="26">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>903</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="27">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>6.2305295950155763E-2</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="J10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="26">
         <v>685</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="26">
         <v>34</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="26">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>651</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="27">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>4.9635036496350364E-2</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="28" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1592,46 +1596,46 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="11">
         <v>601</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="11">
         <v>148</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="11">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>453</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="12">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.24625623960066556</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="18" t="s">
+      <c r="J13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1678,46 +1682,46 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="11">
         <v>454</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="11">
         <v>147</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="11">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>307</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="12">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.32378854625550663</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>67</v>
       </c>
     </row>

--- a/additional datasets.xlsx
+++ b/additional datasets.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B1F0304C-E3AA-4FBB-A679-6149A3EF0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8C6AFF-7820-44E1-8B43-B106843EAC1F}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{B1F0304C-E3AA-4FBB-A679-6149A3EF0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF13C514-5681-4A1F-8EC5-F85EE73BD78C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{702BC2A0-E93A-4295-984E-5B758B542739}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{702BC2A0-E93A-4295-984E-5B758B542739}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
-    <sheet name="email request" sheetId="2" r:id="rId2"/>
-    <sheet name="Sample data" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId2"/>
+    <sheet name="email request" sheetId="2" r:id="rId3"/>
+    <sheet name="Sample data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -424,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +462,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -483,18 +490,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -511,13 +518,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -558,21 +626,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -602,6 +655,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -711,10 +788,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C39DC0-12B0-41F1-A2D3-C34492265978}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,46 +1200,46 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="16">
         <v>10454</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="16">
         <v>573</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="16">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>9881</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="17">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>5.4811555385498374E-2</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1256,134 +1329,134 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="16">
         <v>2350</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="16">
         <v>132</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="16">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>2218</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="17">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>5.6170212765957447E-2</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="28" t="s">
+      <c r="L5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:13" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="21">
         <f>1008+768</f>
         <v>1776</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="21">
         <f>111+110</f>
         <v>221</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="21">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1555</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="22">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.12443693693693694</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:13" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="21">
         <v>1736</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="21">
         <v>169</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="21">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1567</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="22">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>9.7350230414746539E-2</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="18" t="s">
+      <c r="J7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1430,129 +1503,129 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="21">
         <v>1433</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="21">
         <v>65</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="21">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>1368</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="22">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>4.5359385903698535E-2</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="28" t="s">
+      <c r="J9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:13" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="21">
         <v>963</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="21">
         <v>60</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="21">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>903</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="22">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>6.2305295950155763E-2</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="J10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="21">
         <v>685</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="21">
         <v>34</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="21">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>651</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="22">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>4.9635036496350364E-2</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="28" t="s">
+      <c r="J11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="23" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1639,46 +1712,46 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="11">
         <v>556</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="11">
         <v>112</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="11">
         <f>Table1[[#This Row],[Size]]-Table1[[#This Row],[Included]]</f>
         <v>444</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="12">
         <f>Table1[[#This Row],[Included]]/Table1[[#This Row],[Size]]</f>
         <v>0.20143884892086331</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="23" t="s">
+      <c r="J14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2014,6 +2087,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9B7AE9-F4B9-4E08-A588-379AEA26F289}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24">
+        <v>168</v>
+      </c>
+      <c r="B1" s="25">
+        <v>7</v>
+      </c>
+      <c r="C1" s="25">
+        <v>175</v>
+      </c>
+      <c r="D1" s="25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26">
+        <v>114</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27">
+        <v>114</v>
+      </c>
+      <c r="D2" s="27">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26">
+        <v>402</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
+        <v>402</v>
+      </c>
+      <c r="D3" s="27">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26">
+        <v>475</v>
+      </c>
+      <c r="B4" s="27">
+        <v>78</v>
+      </c>
+      <c r="C4" s="27">
+        <v>553</v>
+      </c>
+      <c r="D4" s="27">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26">
+        <v>564</v>
+      </c>
+      <c r="B5" s="27">
+        <v>26</v>
+      </c>
+      <c r="C5" s="27">
+        <v>590</v>
+      </c>
+      <c r="D5" s="27">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28">
+        <v>1080</v>
+      </c>
+      <c r="B6" s="27">
+        <v>53</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1133</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <v>587</v>
+      </c>
+      <c r="B7" s="27">
+        <v>98</v>
+      </c>
+      <c r="C7" s="27">
+        <v>685</v>
+      </c>
+      <c r="D7" s="27">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26">
+        <v>963</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>963</v>
+      </c>
+      <c r="D8" s="27">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28">
+        <v>1433</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1433</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="28">
+        <v>1722</v>
+      </c>
+      <c r="B10" s="27">
+        <v>9</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1731</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28">
+        <v>1771</v>
+      </c>
+      <c r="B11" s="27">
+        <v>6</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1777</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28">
+        <v>2250</v>
+      </c>
+      <c r="B12" s="27">
+        <v>100</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2300</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28">
+        <f>C13-B13</f>
+        <v>2600</v>
+      </c>
+      <c r="B13" s="27">
+        <v>100</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2700</v>
+      </c>
+      <c r="D13" s="29">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28">
+        <v>3432</v>
+      </c>
+      <c r="B14" s="27">
+        <v>57</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3489</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="28">
+        <f>C15-B15</f>
+        <v>3775</v>
+      </c>
+      <c r="B15" s="27">
+        <v>125</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3900</v>
+      </c>
+      <c r="D15" s="29">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28">
+        <f>C16-B16</f>
+        <v>10050</v>
+      </c>
+      <c r="B16" s="27">
+        <v>250</v>
+      </c>
+      <c r="C16" s="29">
+        <v>10300</v>
+      </c>
+      <c r="D16" s="29">
+        <v>10454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="27">
+        <f>SUM(A1:A16)</f>
+        <v>31386</v>
+      </c>
+      <c r="B17" s="27">
+        <f t="shared" ref="A17:B17" si="0">SUM(B1:B16)</f>
+        <v>909</v>
+      </c>
+      <c r="C17" s="27">
+        <f>SUM(C1:C16)</f>
+        <v>32245</v>
+      </c>
+      <c r="D17" s="27">
+        <f>SUM(D1:D16)</f>
+        <v>32693</v>
+      </c>
+      <c r="E17" s="31">
+        <f>A17/C17</f>
+        <v>0.97336021088540858</v>
+      </c>
+      <c r="F17" s="30">
+        <f>C17/D17</f>
+        <v>0.9862967607744777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D240E697-9C20-4D4E-A17D-47C340BDD15F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2035,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7472CA68-B521-48D4-9334-CFDFAE55AB97}">
   <dimension ref="A1:L6"/>
   <sheetViews>
